--- a/input/test.xlsx
+++ b/input/test.xlsx
@@ -148,8 +148,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -163,7 +163,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,125 +299,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -315,13 +315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,13 +351,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,19 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,13 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,103 +483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,22 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,7 +543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,21 +559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,9 +580,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,133 +626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1242,9 +1242,6 @@
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
       <c r="M3">
         <v>4</v>
       </c>
@@ -1301,9 +1298,6 @@
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
       <c r="M4">
         <v>5</v>
       </c>
@@ -1360,9 +1354,6 @@
       <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
       <c r="M5">
         <v>6</v>
       </c>
@@ -1419,9 +1410,6 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
       <c r="M6">
         <v>7</v>
       </c>
@@ -1478,9 +1466,6 @@
       <c r="K7">
         <v>6</v>
       </c>
-      <c r="L7">
-        <v>7</v>
-      </c>
       <c r="M7">
         <v>8</v>
       </c>
@@ -1537,9 +1522,6 @@
       <c r="K8">
         <v>7</v>
       </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
       <c r="M8">
         <v>9</v>
       </c>
@@ -1596,9 +1578,6 @@
       <c r="K9">
         <v>8</v>
       </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
       <c r="M9">
         <v>10</v>
       </c>
@@ -1655,9 +1634,6 @@
       <c r="K10">
         <v>9</v>
       </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
       <c r="M10">
         <v>11</v>
       </c>
@@ -1714,9 +1690,6 @@
       <c r="K11">
         <v>10</v>
       </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
       <c r="M11">
         <v>12</v>
       </c>
@@ -1773,9 +1746,6 @@
       <c r="K12">
         <v>11</v>
       </c>
-      <c r="L12">
-        <v>12</v>
-      </c>
       <c r="M12">
         <v>13</v>
       </c>
@@ -1832,9 +1802,6 @@
       <c r="K13">
         <v>12</v>
       </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
       <c r="M13">
         <v>14</v>
       </c>
@@ -1891,9 +1858,6 @@
       <c r="K14">
         <v>13</v>
       </c>
-      <c r="L14">
-        <v>14</v>
-      </c>
       <c r="M14">
         <v>15</v>
       </c>
@@ -1950,9 +1914,6 @@
       <c r="K15">
         <v>14</v>
       </c>
-      <c r="L15">
-        <v>15</v>
-      </c>
       <c r="M15">
         <v>16</v>
       </c>
@@ -2009,9 +1970,6 @@
       <c r="K16">
         <v>15</v>
       </c>
-      <c r="L16">
-        <v>16</v>
-      </c>
       <c r="M16">
         <v>17</v>
       </c>
@@ -2068,9 +2026,6 @@
       <c r="K17">
         <v>16</v>
       </c>
-      <c r="L17">
-        <v>17</v>
-      </c>
       <c r="M17">
         <v>18</v>
       </c>
@@ -2127,9 +2082,6 @@
       <c r="K18">
         <v>17</v>
       </c>
-      <c r="L18">
-        <v>18</v>
-      </c>
       <c r="M18">
         <v>19</v>
       </c>
@@ -2186,9 +2138,6 @@
       <c r="K19">
         <v>18</v>
       </c>
-      <c r="L19">
-        <v>19</v>
-      </c>
       <c r="M19">
         <v>20</v>
       </c>
@@ -2245,9 +2194,6 @@
       <c r="K20">
         <v>19</v>
       </c>
-      <c r="L20">
-        <v>20</v>
-      </c>
       <c r="M20">
         <v>21</v>
       </c>
@@ -2303,9 +2249,6 @@
       </c>
       <c r="K21">
         <v>20</v>
-      </c>
-      <c r="L21">
-        <v>21</v>
       </c>
       <c r="M21">
         <v>22</v>
@@ -2363,9 +2306,6 @@
       <c r="K22">
         <v>21</v>
       </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
       <c r="M22">
         <v>23</v>
       </c>
@@ -2422,9 +2362,6 @@
       <c r="K23">
         <v>22</v>
       </c>
-      <c r="L23">
-        <v>23</v>
-      </c>
       <c r="M23">
         <v>24</v>
       </c>
@@ -2481,9 +2418,6 @@
       <c r="K24">
         <v>23</v>
       </c>
-      <c r="L24">
-        <v>24</v>
-      </c>
       <c r="M24">
         <v>25</v>
       </c>
@@ -2539,9 +2473,6 @@
       </c>
       <c r="K25">
         <v>24</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
       </c>
       <c r="M25">
         <v>26</v>
@@ -2598,9 +2529,6 @@
       </c>
       <c r="K26">
         <v>25</v>
-      </c>
-      <c r="L26">
-        <v>26</v>
       </c>
       <c r="M26">
         <v>27</v>
